--- a/data/playtesting.xlsx
+++ b/data/playtesting.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="2" r:id="rId1"/>
     <sheet name="The Greedy Prisoner - Aug 3" sheetId="1" r:id="rId2"/>
-    <sheet name="Greedy Prisoner - Aug 3 4P" sheetId="3" r:id="rId3"/>
+    <sheet name="Greedy Prisoner - Aug 4, 4P" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -154,6 +154,57 @@
   </si>
   <si>
     <t>Triggered Penalty</t>
+  </si>
+  <si>
+    <t>No penalty. Specifically had a quiet round</t>
+  </si>
+  <si>
+    <t>Freed the prisoner this round. 3 characters made no noise. Crisis hurt us bad. We were ABOUT to get the loot and a lock hit us. (this was a perfect placement honestly - we were slow-playing it and farming ideas). Nobody did the stage whisper although we would have if we could.</t>
+  </si>
+  <si>
+    <t>Triggered the alarm. Oof. Too short!! Lengthen that noise tracker by like 10 noise to get through more events.</t>
+  </si>
+  <si>
+    <t>tons</t>
+  </si>
+  <si>
+    <t>Pickpocket got screwed over by lock the loot. Fortunately script kiddie helped but still. Assumed that we triggered the end of the heist here with the last event happening - but that made no sense based on the current rules so we assumed it had no effect. Release the Hounds felt like a cheap shot. Maybe having them run in farther would be better actually so we could handle them. In the end, the pickpocket needed to roll a 3 or higher to get the two jewels (66%) AND the NPC needed a 3 or higher (66%) just to succeed, so 43% just to succeed with the heist. PLUS, burglar had no ideas at the end and needed a 5 to escape (33%) AND the street urchin needed 5 to escape (33%). Oof this was rough even with another round. And that's with $9k spent which people are loathe to do in the first place. So this is tough for 4p. I'm thinking loosen up the noise tracker, and add some more events to the deck. The shape of the board is fine - maybe swap the remote gates? Or make the Y gate have a different meaning.</t>
+  </si>
+  <si>
+    <t>Player1</t>
+  </si>
+  <si>
+    <t>Player2</t>
+  </si>
+  <si>
+    <t>Player3</t>
+  </si>
+  <si>
+    <t>Player4</t>
+  </si>
+  <si>
+    <t>Pickpocket+HitNRun+Prowl</t>
+  </si>
+  <si>
+    <t>Stree Urchin+SmashNGrab+Ninja</t>
+  </si>
+  <si>
+    <t>Burgla+WingIt+Assault</t>
+  </si>
+  <si>
+    <t>Script Kiddie + Bypass + Splice In</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was the quietest 4p squad I could come up with, and they certainly were quiet. </t>
+  </si>
+  <si>
+    <t>Lookout+SpliceIn+Improvise</t>
+  </si>
+  <si>
+    <t>Angry Locksmith+Extract+Yank Wires</t>
+  </si>
+  <si>
+    <t>Thug+Pilfer+Hurry</t>
   </si>
 </sst>
 </file>
@@ -215,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -242,13 +293,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -555,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,12 +623,16 @@
     <col min="4" max="5" width="8.7265625" style="6"/>
     <col min="6" max="6" width="17.90625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="8.7265625" style="6"/>
-    <col min="19" max="16384" width="8.7265625" style="5"/>
+    <col min="8" max="8" width="24.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="22" width="8.7265625" style="6"/>
+    <col min="23" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -596,67 +654,83 @@
       <c r="G1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
+    <row r="2" spans="1:23" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="R2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="S2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="T2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="U2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>44035</v>
       </c>
@@ -678,36 +752,36 @@
       <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="6">
+      <c r="L3" s="6">
         <v>27</v>
       </c>
-      <c r="I3" s="6">
+      <c r="M3" s="6">
         <v>16</v>
       </c>
-      <c r="J3" s="6">
+      <c r="N3" s="6">
         <v>9</v>
       </c>
-      <c r="K3" s="6">
+      <c r="O3" s="6">
         <v>10</v>
       </c>
-      <c r="L3" s="6">
+      <c r="P3" s="6">
         <v>15</v>
       </c>
-      <c r="M3" s="6">
+      <c r="Q3" s="6">
         <v>7</v>
       </c>
-      <c r="N3" s="6">
+      <c r="R3" s="6">
         <v>7</v>
       </c>
-      <c r="O3" s="6">
+      <c r="S3" s="6">
         <v>8</v>
       </c>
-      <c r="R3" s="6">
-        <f>SUM(H3:Q3)</f>
+      <c r="V3" s="6">
+        <f>SUM(L3:U3)</f>
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>44046</v>
       </c>
@@ -729,8 +803,55 @@
       <c r="G4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="H4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" s="5" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>44047</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
+        <v>39</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -739,12 +860,12 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="H1:Q1"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="L1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -755,7 +876,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -962,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1063,6 +1184,9 @@
       <c r="E5" s="4">
         <v>6</v>
       </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -1071,6 +1195,15 @@
       <c r="B6" s="4">
         <v>5</v>
       </c>
+      <c r="D6" s="4">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -1079,6 +1212,15 @@
       <c r="B7" s="4">
         <v>6</v>
       </c>
+      <c r="D7" s="4">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -1087,6 +1229,15 @@
       <c r="B8" s="4">
         <v>7</v>
       </c>
+      <c r="D8" s="4">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -1095,14 +1246,18 @@
       <c r="B9" s="4">
         <v>8</v>
       </c>
+      <c r="D9" s="4">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B10" s="4">
-        <v>9</v>
-      </c>
+      <c r="A10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/playtesting.xlsx
+++ b/data/playtesting.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="2" r:id="rId1"/>
-    <sheet name="The Greedy Prisoner - Aug 3" sheetId="1" r:id="rId2"/>
-    <sheet name="Greedy Prisoner - Aug 4, 4P" sheetId="3" r:id="rId3"/>
+    <sheet name="GreedyP - Aug 3" sheetId="1" r:id="rId2"/>
+    <sheet name="GreedyP - Aug 4, 4P" sheetId="3" r:id="rId3"/>
+    <sheet name="GreedyP - Aug 5" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -205,6 +206,27 @@
   </si>
   <si>
     <t>Thug+Pilfer+Hurry</t>
+  </si>
+  <si>
+    <t>Noise/Rnd/Player</t>
+  </si>
+  <si>
+    <t>Security Handled</t>
+  </si>
+  <si>
+    <t>Team Avg Level</t>
+  </si>
+  <si>
+    <t>Game Version</t>
+  </si>
+  <si>
+    <t># Events</t>
+  </si>
+  <si>
+    <t>Alerts from Events</t>
+  </si>
+  <si>
+    <t>Alerts from Event</t>
   </si>
 </sst>
 </file>
@@ -266,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,11 +321,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,116 +658,145 @@
     <col min="2" max="2" width="8.7265625" style="6"/>
     <col min="3" max="3" width="16.7265625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.7265625" style="6"/>
-    <col min="6" max="6" width="17.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="22" width="8.7265625" style="6"/>
-    <col min="23" max="16384" width="8.7265625" style="5"/>
+    <col min="6" max="6" width="15.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12" style="12" customWidth="1"/>
+    <col min="9" max="9" width="7.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.54296875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="17.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="28" width="8.7265625" style="6"/>
+    <col min="29" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:29" s="10" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="R1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12" t="s">
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="AC1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9" t="s">
+    <row r="2" spans="1:29" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>44035</v>
       </c>
@@ -746,42 +812,55 @@
       <c r="E3" s="6">
         <v>28</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="12">
+        <f>(E3/D3)/B3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>18</v>
+      </c>
+      <c r="J3" s="12">
+        <v>24</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="6">
+      <c r="R3" s="6">
         <v>27</v>
       </c>
-      <c r="M3" s="6">
+      <c r="S3" s="6">
         <v>16</v>
       </c>
-      <c r="N3" s="6">
+      <c r="T3" s="6">
         <v>9</v>
       </c>
-      <c r="O3" s="6">
+      <c r="U3" s="6">
         <v>10</v>
       </c>
-      <c r="P3" s="6">
+      <c r="V3" s="6">
         <v>15</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="W3" s="6">
         <v>7</v>
       </c>
-      <c r="R3" s="6">
+      <c r="X3" s="6">
         <v>7</v>
       </c>
-      <c r="S3" s="6">
+      <c r="Y3" s="6">
         <v>8</v>
       </c>
-      <c r="V3" s="6">
-        <f>SUM(L3:U3)</f>
+      <c r="AB3" s="6">
+        <f>SUM(R3:AA3)</f>
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>44046</v>
       </c>
@@ -797,26 +876,39 @@
       <c r="E4" s="6">
         <v>43</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F5" si="0">(E4/D4)/B4</f>
+        <v>1.5925925925925926</v>
+      </c>
+      <c r="H4" s="12">
+        <v>2</v>
+      </c>
+      <c r="I4" s="12">
+        <v>19</v>
+      </c>
+      <c r="J4" s="12">
+        <v>24</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>44047</v>
       </c>
@@ -832,42 +924,88 @@
       <c r="E5" s="6">
         <v>39</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>1.21875</v>
+      </c>
+      <c r="G5" s="12">
+        <v>14</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2</v>
+      </c>
+      <c r="I5" s="12">
+        <v>19</v>
+      </c>
+      <c r="J5" s="12">
+        <v>24</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>44048</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="12">
+        <v>2</v>
+      </c>
+      <c r="I6" s="12">
+        <v>19</v>
+      </c>
+      <c r="J6" s="12">
+        <v>24</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -875,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1083,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1262,4 +1400,153 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="4"/>
+    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/playtesting.xlsx
+++ b/data/playtesting.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -223,10 +223,19 @@
     <t># Events</t>
   </si>
   <si>
-    <t>Alerts from Events</t>
-  </si>
-  <si>
     <t>Alerts from Event</t>
+  </si>
+  <si>
+    <t>Event Alerts/Rnd</t>
+  </si>
+  <si>
+    <t>Event Alerts</t>
+  </si>
+  <si>
+    <t>Two studies: one pro one amateur from Bypass. Didn't trigger penalty but also was ON a space with a guard… soo….</t>
+  </si>
+  <si>
+    <t>Added an Alert by walking on a camera, specifically to avoid event 6</t>
   </si>
 </sst>
 </file>
@@ -646,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,19 +671,21 @@
     <col min="7" max="7" width="8.54296875" style="12" customWidth="1"/>
     <col min="8" max="8" width="12" style="12" customWidth="1"/>
     <col min="9" max="9" width="7.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.54296875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="17.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="28" width="8.7265625" style="6"/>
-    <col min="29" max="16384" width="8.7265625" style="5"/>
+    <col min="10" max="10" width="7.54296875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="6.81640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="29" width="8.7265625" style="6"/>
+    <col min="30" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="10" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="10" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -706,30 +717,32 @@
         <v>67</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="13"/>
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
       <c r="V1" s="13"/>
@@ -738,14 +751,15 @@
       <c r="Y1" s="13"/>
       <c r="Z1" s="13"/>
       <c r="AA1" s="13"/>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -757,46 +771,47 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="14"/>
+      <c r="L2" s="18"/>
       <c r="M2" s="14"/>
-      <c r="N2" s="9"/>
+      <c r="N2" s="14"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AD2" s="14"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>44035</v>
       </c>
@@ -825,42 +840,42 @@
       <c r="J3" s="12">
         <v>24</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="6">
+      <c r="S3" s="6">
         <v>27</v>
       </c>
-      <c r="S3" s="6">
+      <c r="T3" s="6">
         <v>16</v>
       </c>
-      <c r="T3" s="6">
+      <c r="U3" s="6">
         <v>9</v>
       </c>
-      <c r="U3" s="6">
+      <c r="V3" s="6">
         <v>10</v>
       </c>
-      <c r="V3" s="6">
+      <c r="W3" s="6">
         <v>15</v>
-      </c>
-      <c r="W3" s="6">
-        <v>7</v>
       </c>
       <c r="X3" s="6">
         <v>7</v>
       </c>
       <c r="Y3" s="6">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="6">
         <v>8</v>
       </c>
-      <c r="AB3" s="6">
-        <f>SUM(R3:AA3)</f>
+      <c r="AC3" s="6">
+        <f>SUM(S3:AB3)</f>
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>44046</v>
       </c>
@@ -889,26 +904,26 @@
       <c r="J4" s="12">
         <v>24</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AD4" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>44047</v>
       </c>
@@ -940,29 +955,32 @@
       <c r="J5" s="12">
         <v>24</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AD5" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>44048</v>
       </c>
@@ -981,22 +999,23 @@
       <c r="J6" s="12">
         <v>24</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="S1:AB1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -1222,7 +1241,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1407,7 +1426,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1441,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -1454,6 +1473,15 @@
       <c r="B2" s="4">
         <v>1</v>
       </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
       <c r="H2" t="s">
         <v>7</v>
       </c>
@@ -1465,8 +1493,17 @@
       <c r="B3" s="4">
         <v>2</v>
       </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1477,7 +1514,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1487,9 +1524,6 @@
       <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -1498,9 +1532,6 @@
       <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -1509,9 +1540,6 @@
       <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -1520,9 +1548,6 @@
       <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -1531,9 +1556,6 @@
       <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -1541,9 +1563,6 @@
       </c>
       <c r="B10" s="4">
         <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/playtesting.xlsx
+++ b/data/playtesting.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="2" r:id="rId1"/>
-    <sheet name="GreedyP - Aug 3" sheetId="1" r:id="rId2"/>
-    <sheet name="GreedyP - Aug 4, 4P" sheetId="3" r:id="rId3"/>
-    <sheet name="GreedyP - Aug 5" sheetId="5" r:id="rId4"/>
+    <sheet name="GreedyP - Aug6" sheetId="6" r:id="rId2"/>
+    <sheet name="GreedyP - Aug 5" sheetId="5" r:id="rId3"/>
+    <sheet name="GreedyP - Aug 3" sheetId="1" r:id="rId4"/>
+    <sheet name="GreedyP - Aug 4, 4P" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -235,7 +236,73 @@
     <t>Two studies: one pro one amateur from Bypass. Didn't trigger penalty but also was ON a space with a guard… soo….</t>
   </si>
   <si>
-    <t>Added an Alert by walking on a camera, specifically to avoid event 6</t>
+    <t>Added an Alert by walking on a camera, specifically to avoid event 6. Maybe replace Shadows in the Window? Seems unfair for this scenario.</t>
+  </si>
+  <si>
+    <t>Triggered two re-locks, one that will certainly hurt.</t>
+  </si>
+  <si>
+    <t>Pickpocket stepped on camera to get loot. Lost 2 ideas on this one.</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>STILL not freed the prisoner. We really dinked around on this one farming ideas. What if we added another X server in the top-left dog? That opens up lots of options. Oof the lock the loot really hurt us.</t>
+  </si>
+  <si>
+    <t>Landed exactly on Coming in Hot. But we didn't handle the lock so it doesn't matter. At this stage it's impossible. Boo. Having those extra two events were nice though. Also ignored rescue dogs. Just unfair at that point.</t>
+  </si>
+  <si>
+    <t>Player Alerts</t>
+  </si>
+  <si>
+    <t>Player Events</t>
+  </si>
+  <si>
+    <t>Lost - got impossible</t>
+  </si>
+  <si>
+    <t>Lookout+Smash+Prowl</t>
+  </si>
+  <si>
+    <t>Pickpocket+Bypass+Ninja</t>
+  </si>
+  <si>
+    <t>Shutter+Bypass+Assault</t>
+  </si>
+  <si>
+    <t>Angry+Hit+Steal</t>
+  </si>
+  <si>
+    <t>Farming ideas and hanging outside</t>
+  </si>
+  <si>
+    <t>Event had no effect</t>
+  </si>
+  <si>
+    <t>Double study. No effect.</t>
+  </si>
+  <si>
+    <t>Added one camera, but no biggie.</t>
+  </si>
+  <si>
+    <t>Two ideas lost. Could be bad but by now we've got 11 ideas on Shutter Bug. Holy Crap. But that's fine.</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>Stepped on a camera</t>
+  </si>
+  <si>
+    <t>C4, C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hit the noise limit. Decided that each noise is equal one alert at this stage - I had that right many moons ago. That gives us one more round. </t>
+  </si>
+  <si>
+    <t>Freed the prisoner THIS round. Oof. Hit the end and beyond. Lock the loot screwed us over again. But it was soooo close. I had tons of ideas at the end. Probability of NPC getting out is: 3 or higher, or 66%. And the Angry Locksmith was 1/6 probability of getting out.</t>
   </si>
 </sst>
 </file>
@@ -297,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,6 +400,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,11 +418,8 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -674,144 +744,149 @@
     <col min="10" max="10" width="7.54296875" style="12" customWidth="1"/>
     <col min="11" max="11" width="6.81640625" style="12" customWidth="1"/>
     <col min="12" max="12" width="9.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="29" width="8.7265625" style="6"/>
-    <col min="30" max="16384" width="8.7265625" style="5"/>
+    <col min="13" max="13" width="9.81640625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="17.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="30" width="8.7265625" style="6"/>
+    <col min="31" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="10" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:31" s="10" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="13" t="s">
         <v>69</v>
       </c>
       <c r="M1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13" t="s">
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+    <row r="2" spans="1:31" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="9"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="9"/>
+      <c r="T2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>44035</v>
       </c>
@@ -840,42 +915,45 @@
       <c r="J3" s="12">
         <v>24</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="6">
+      <c r="T3" s="6">
         <v>27</v>
       </c>
-      <c r="T3" s="6">
+      <c r="U3" s="6">
         <v>16</v>
       </c>
-      <c r="U3" s="6">
+      <c r="V3" s="6">
         <v>9</v>
       </c>
-      <c r="V3" s="6">
+      <c r="W3" s="6">
         <v>10</v>
       </c>
-      <c r="W3" s="6">
+      <c r="X3" s="6">
         <v>15</v>
-      </c>
-      <c r="X3" s="6">
-        <v>7</v>
       </c>
       <c r="Y3" s="6">
         <v>7</v>
       </c>
       <c r="Z3" s="6">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="6">
         <v>8</v>
       </c>
-      <c r="AC3" s="6">
-        <f>SUM(S3:AB3)</f>
+      <c r="AD3" s="6">
+        <f>SUM(T3:AC3)</f>
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>44046</v>
       </c>
@@ -892,7 +970,7 @@
         <v>43</v>
       </c>
       <c r="F4" s="12">
-        <f t="shared" ref="F4:F5" si="0">(E4/D4)/B4</f>
+        <f t="shared" ref="F4:F6" si="0">(E4/D4)/B4</f>
         <v>1.5925925925925926</v>
       </c>
       <c r="H4" s="12">
@@ -904,26 +982,29 @@
       <c r="J4" s="12">
         <v>24</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AE4" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>44047</v>
       </c>
@@ -958,29 +1039,35 @@
       <c r="K5" s="12">
         <v>4</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="L5" s="12">
+        <v>1</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="S5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>44048</v>
       </c>
@@ -990,6 +1077,19 @@
       <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="D6" s="6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>36</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="G6" s="12">
+        <v>14</v>
+      </c>
       <c r="H6" s="12">
         <v>2</v>
       </c>
@@ -997,31 +1097,64 @@
         <v>19</v>
       </c>
       <c r="J6" s="12">
-        <v>24</v>
-      </c>
-      <c r="M6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="12">
+        <v>2</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="O6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" s="19">
+        <v>44049</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
+  <mergeCells count="18">
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="S1:AB1"/>
+    <mergeCell ref="T1:AC1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1029,6 +1162,476 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E12" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="4"/>
+    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -1236,7 +1839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -1419,153 +2022,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="8.7265625" style="4"/>
-    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="4"/>
-    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="4"/>
-    <col min="7" max="7" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B10" s="4">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/playtesting.xlsx
+++ b/data/playtesting.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="2" r:id="rId1"/>
-    <sheet name="GreedyP - Aug6" sheetId="6" r:id="rId2"/>
-    <sheet name="GreedyP - Aug 5" sheetId="5" r:id="rId3"/>
-    <sheet name="GreedyP - Aug 3" sheetId="1" r:id="rId4"/>
-    <sheet name="GreedyP - Aug 4, 4P" sheetId="3" r:id="rId5"/>
+    <sheet name="GreedyP - Aug11 4p" sheetId="7" r:id="rId2"/>
+    <sheet name="GreedyP - Aug6" sheetId="6" r:id="rId3"/>
+    <sheet name="GreedyP - Aug 5" sheetId="5" r:id="rId4"/>
+    <sheet name="GreedyP - Aug 3" sheetId="1" r:id="rId5"/>
+    <sheet name="GreedyP - Aug 4, 4P" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -227,9 +228,6 @@
     <t>Alerts from Event</t>
   </si>
   <si>
-    <t>Event Alerts/Rnd</t>
-  </si>
-  <si>
     <t>Event Alerts</t>
   </si>
   <si>
@@ -303,6 +301,51 @@
   </si>
   <si>
     <t>Freed the prisoner THIS round. Oof. Hit the end and beyond. Lock the loot screwed us over again. But it was soooo close. I had tons of ideas at the end. Probability of NPC getting out is: 3 or higher, or 66%. And the Angry Locksmith was 1/6 probability of getting out.</t>
+  </si>
+  <si>
+    <t>Lost - got impossible, but closer.</t>
+  </si>
+  <si>
+    <t>Andy, Brad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bought 3 reveals from Visage. </t>
+  </si>
+  <si>
+    <t>No trigger</t>
+  </si>
+  <si>
+    <t>Added two locks</t>
+  </si>
+  <si>
+    <t>Freed prisoner this round</t>
+  </si>
+  <si>
+    <t>C4, C7</t>
+  </si>
+  <si>
+    <t>Sentinel+Smash+Prowl</t>
+  </si>
+  <si>
+    <t>Thief+Bypass+Ninja</t>
+  </si>
+  <si>
+    <t>Tinkerer+Bypass+Assault</t>
+  </si>
+  <si>
+    <t>Safecracker+Hit+Steal</t>
+  </si>
+  <si>
+    <t>83% chance of winning, and a good likelihood of one character busted</t>
+  </si>
+  <si>
+    <t>Triggered the end. Blue needed a 5/6 to get out (83%). Prisoner got 2 ideas from sentinel. Needs a 2 or higher to get out. Success was a 2 or higher. Purple needed a 4 or higher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brad basically playing alone. He played it pretty aggressively but that was probably the right approach. Could have saved a few things here and there but the round count would've been the same. </t>
+  </si>
+  <si>
+    <t>Pointless Noise</t>
   </si>
 </sst>
 </file>
@@ -364,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,11 +443,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,8 +458,31 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -736,14 +799,13 @@
     <col min="1" max="1" width="9.453125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="6"/>
     <col min="3" max="3" width="16.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" style="6"/>
-    <col min="6" max="6" width="15.6328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="12" style="12" customWidth="1"/>
-    <col min="9" max="9" width="7.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.54296875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="6.81640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" style="6"/>
+    <col min="7" max="7" width="11.90625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12" style="12" customWidth="1"/>
+    <col min="10" max="10" width="7.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.54296875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="6.81640625" style="12" customWidth="1"/>
     <col min="13" max="13" width="9.81640625" style="12" customWidth="1"/>
     <col min="14" max="14" width="17.90625" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.1796875" style="6" bestFit="1" customWidth="1"/>
@@ -751,55 +813,55 @@
     <col min="17" max="17" width="31.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.7265625" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="27.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="30" width="8.7265625" style="6"/>
+    <col min="20" max="20" width="15.7265625" style="6" hidden="1" customWidth="1"/>
+    <col min="21" max="30" width="0" style="6" hidden="1" customWidth="1"/>
     <col min="31" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="10" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="15" t="s">
+      <c r="M1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>34</v>
       </c>
       <c r="P1" s="11" t="s">
@@ -814,41 +876,41 @@
       <c r="S1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15" t="s">
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
@@ -883,8 +945,8 @@
       <c r="AC2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
@@ -902,17 +964,17 @@
       <c r="E3" s="6">
         <v>28</v>
       </c>
-      <c r="F3" s="12">
+      <c r="G3" s="12">
         <f>(E3/D3)/B3</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="H3" s="12">
+      <c r="I3" s="12">
         <v>1</v>
       </c>
-      <c r="I3" s="12">
+      <c r="J3" s="12">
         <v>18</v>
       </c>
-      <c r="J3" s="12">
+      <c r="K3" s="12">
         <v>24</v>
       </c>
       <c r="M3" s="12">
@@ -969,17 +1031,17 @@
       <c r="E4" s="6">
         <v>43</v>
       </c>
-      <c r="F4" s="12">
-        <f t="shared" ref="F4:F6" si="0">(E4/D4)/B4</f>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:G8" si="0">(E4/D4)/B4</f>
         <v>1.5925925925925926</v>
       </c>
-      <c r="H4" s="12">
+      <c r="I4" s="12">
         <v>2</v>
       </c>
-      <c r="I4" s="12">
+      <c r="J4" s="12">
         <v>19</v>
       </c>
-      <c r="J4" s="12">
+      <c r="K4" s="12">
         <v>24</v>
       </c>
       <c r="M4" s="12">
@@ -1020,27 +1082,24 @@
       <c r="E5" s="6">
         <v>39</v>
       </c>
-      <c r="F5" s="12">
+      <c r="G5" s="12">
         <f t="shared" si="0"/>
         <v>1.21875</v>
       </c>
-      <c r="G5" s="12">
+      <c r="H5" s="12">
         <v>14</v>
       </c>
-      <c r="H5" s="12">
+      <c r="I5" s="12">
         <v>2</v>
       </c>
-      <c r="I5" s="12">
+      <c r="J5" s="12">
         <v>19</v>
       </c>
-      <c r="J5" s="12">
+      <c r="K5" s="12">
         <v>24</v>
       </c>
-      <c r="K5" s="12">
-        <v>4</v>
-      </c>
       <c r="L5" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M5" s="12">
         <v>0</v>
@@ -1083,20 +1142,20 @@
       <c r="E6" s="6">
         <v>36</v>
       </c>
-      <c r="F6" s="12">
+      <c r="G6" s="12">
         <f t="shared" si="0"/>
         <v>1.125</v>
       </c>
-      <c r="G6" s="12">
+      <c r="H6" s="12">
         <v>14</v>
       </c>
-      <c r="H6" s="12">
+      <c r="I6" s="12">
         <v>2</v>
       </c>
-      <c r="I6" s="12">
+      <c r="J6" s="12">
         <v>19</v>
       </c>
-      <c r="J6" s="12">
+      <c r="K6" s="12">
         <v>26</v>
       </c>
       <c r="M6" s="12">
@@ -1106,23 +1165,23 @@
         <v>17</v>
       </c>
       <c r="O6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="S6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="S6" s="6" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A7" s="19">
+      <c r="A7" s="13">
         <v>44049</v>
       </c>
       <c r="B7" s="6">
@@ -1131,19 +1190,132 @@
       <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="D7" s="6">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6">
+        <v>43</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>1.1944444444444444</v>
+      </c>
+      <c r="H7" s="12">
+        <v>14</v>
+      </c>
+      <c r="I7" s="12">
+        <v>2</v>
+      </c>
+      <c r="J7" s="12">
+        <v>19</v>
+      </c>
+      <c r="K7" s="12">
+        <v>26</v>
+      </c>
+      <c r="L7" s="12">
+        <v>2</v>
+      </c>
+      <c r="M7" s="12">
+        <v>1</v>
+      </c>
       <c r="N7" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="O7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
+        <v>44054</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="6">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
+        <v>47</v>
+      </c>
+      <c r="F8" s="6">
+        <v>9</v>
+      </c>
+      <c r="G8" s="12">
+        <f>IF(F8&gt;0, (E8-F8)/(D8-1)/B8,(E8/D8)/B8)</f>
+        <v>1.3571428571428572</v>
+      </c>
+      <c r="H8" s="12">
+        <v>17</v>
+      </c>
+      <c r="I8" s="12">
+        <v>3</v>
+      </c>
+      <c r="J8" s="12">
+        <v>20</v>
+      </c>
+      <c r="K8" s="12">
+        <v>26</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="T1:AC1"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -1151,10 +1323,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1165,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1203,33 +1371,27 @@
         <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>85</v>
+    <row r="2" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="23" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1237,22 +1399,19 @@
         <v>44049</v>
       </c>
       <c r="B3" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.37986111111111115</v>
       </c>
       <c r="D3" s="4">
         <v>7</v>
       </c>
       <c r="E3" s="4">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1260,22 +1419,19 @@
         <v>44049</v>
       </c>
       <c r="B4" s="4">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.3840277777777778</v>
       </c>
       <c r="D4" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1283,22 +1439,19 @@
         <v>44049</v>
       </c>
       <c r="B5" s="4">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.38611111111111113</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
       </c>
       <c r="E5" s="4">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1306,22 +1459,19 @@
         <v>44049</v>
       </c>
       <c r="B6" s="4">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.39166666666666666</v>
       </c>
       <c r="D6" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="4">
-        <v>13</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1329,22 +1479,22 @@
         <v>44049</v>
       </c>
       <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
-        <v>4</v>
-      </c>
       <c r="E7" s="4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="4">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
+      <c r="I7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1352,22 +1502,16 @@
         <v>44049</v>
       </c>
       <c r="B8" s="4">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.40347222222222223</v>
       </c>
       <c r="D8" s="4">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>91</v>
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1375,16 +1519,19 @@
         <v>44049</v>
       </c>
       <c r="B9" s="4">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.40763888888888888</v>
       </c>
       <c r="D9" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="4">
-        <v>22</v>
-      </c>
-      <c r="I9" t="s">
-        <v>93</v>
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1392,20 +1539,24 @@
         <v>44049</v>
       </c>
       <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D10" s="4">
         <v>9</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5</v>
       </c>
       <c r="E10" s="4">
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1413,8 +1564,271 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>24</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E12" sqref="A1:XFD1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1452,7 +1866,7 @@
         <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1495,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1518,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1538,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1578,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1595,10 +2009,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" t="s">
         <v>75</v>
-      </c>
-      <c r="I8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1615,15 +2029,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B10" s="4">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1631,7 +2037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -1839,12 +2245,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/playtesting.xlsx
+++ b/data/playtesting.xlsx
@@ -8,18 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="2" r:id="rId1"/>
-    <sheet name="GreedyP - Aug11 4p" sheetId="7" r:id="rId2"/>
-    <sheet name="GreedyP - Aug6" sheetId="6" r:id="rId3"/>
-    <sheet name="GreedyP - Aug 5" sheetId="5" r:id="rId4"/>
-    <sheet name="GreedyP - Aug 3" sheetId="1" r:id="rId5"/>
-    <sheet name="GreedyP - Aug 4, 4P" sheetId="3" r:id="rId6"/>
+    <sheet name="Next Session" sheetId="11" r:id="rId2"/>
+    <sheet name="GreedyP-Aug11-4p" sheetId="7" r:id="rId3"/>
+    <sheet name="GreedyP-Aug6" sheetId="6" r:id="rId4"/>
+    <sheet name="GreedyP-Aug 5" sheetId="5" r:id="rId5"/>
+    <sheet name="GreedyP-Aug 4, 4P" sheetId="3" r:id="rId6"/>
+    <sheet name="GreedyP-Aug 3" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -138,9 +139,6 @@
     <t>Players</t>
   </si>
   <si>
-    <t># Players</t>
-  </si>
-  <si>
     <t>Almost/Barely got out</t>
   </si>
   <si>
@@ -174,18 +172,6 @@
     <t>Pickpocket got screwed over by lock the loot. Fortunately script kiddie helped but still. Assumed that we triggered the end of the heist here with the last event happening - but that made no sense based on the current rules so we assumed it had no effect. Release the Hounds felt like a cheap shot. Maybe having them run in farther would be better actually so we could handle them. In the end, the pickpocket needed to roll a 3 or higher to get the two jewels (66%) AND the NPC needed a 3 or higher (66%) just to succeed, so 43% just to succeed with the heist. PLUS, burglar had no ideas at the end and needed a 5 to escape (33%) AND the street urchin needed 5 to escape (33%). Oof this was rough even with another round. And that's with $9k spent which people are loathe to do in the first place. So this is tough for 4p. I'm thinking loosen up the noise tracker, and add some more events to the deck. The shape of the board is fine - maybe swap the remote gates? Or make the Y gate have a different meaning.</t>
   </si>
   <si>
-    <t>Player1</t>
-  </si>
-  <si>
-    <t>Player2</t>
-  </si>
-  <si>
-    <t>Player3</t>
-  </si>
-  <si>
-    <t>Player4</t>
-  </si>
-  <si>
     <t>Pickpocket+HitNRun+Prowl</t>
   </si>
   <si>
@@ -346,13 +332,43 @@
   </si>
   <si>
     <t>Pointless Noise</t>
+  </si>
+  <si>
+    <t>#P</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Time start:</t>
+  </si>
+  <si>
+    <t>8:00pm</t>
+  </si>
+  <si>
+    <t>Elapsed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="[$-409]h:mm\ AM/PM;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,16 +384,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -403,11 +431,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -437,25 +481,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -484,9 +516,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -790,131 +842,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="9.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.90625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.7265625" style="6"/>
-    <col min="7" max="7" width="11.90625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="12" style="12" customWidth="1"/>
-    <col min="10" max="10" width="7.1796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.54296875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="6.81640625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="9.81640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="7.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.08984375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.90625" style="26" customWidth="1"/>
+    <col min="16" max="16" width="7.453125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="7.7265625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="3.81640625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="6.453125" style="6" customWidth="1"/>
     <col min="20" max="20" width="15.7265625" style="6" hidden="1" customWidth="1"/>
-    <col min="21" max="30" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="5"/>
+    <col min="21" max="29" width="7.7265625" style="6" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="5.08984375" style="6" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="15.6328125" style="5" customWidth="1"/>
+    <col min="32" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="10" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14" t="s">
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AE1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
       <c r="T2" s="9" t="s">
         <v>31</v>
       </c>
@@ -945,8 +1001,8 @@
       <c r="AC2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
@@ -964,26 +1020,26 @@
       <c r="E3" s="6">
         <v>28</v>
       </c>
-      <c r="G3" s="12">
-        <f>(E3/D3)/B3</f>
+      <c r="G3" s="11">
+        <f>IF(F3&gt;0, (E3-F3)/(D3-1)/B3,(E3/D3)/B3)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>1</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>18</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>24</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <v>0</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="T3" s="6">
@@ -1031,39 +1087,39 @@
       <c r="E4" s="6">
         <v>43</v>
       </c>
-      <c r="G4" s="12">
-        <f t="shared" ref="G4:G8" si="0">(E4/D4)/B4</f>
+      <c r="G4" s="11">
+        <f>IF(F4&gt;0, (E4-F4)/(D4-1)/B4,(E4/D4)/B4)</f>
         <v>1.5925925925925926</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>2</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>19</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>24</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <v>0</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>40</v>
+      <c r="O4" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
@@ -1082,48 +1138,48 @@
       <c r="E5" s="6">
         <v>39</v>
       </c>
-      <c r="G5" s="12">
-        <f t="shared" si="0"/>
+      <c r="G5" s="11">
+        <f>IF(F5&gt;0, (E5-F5)/(D5-1)/B5,(E5/D5)/B5)</f>
         <v>1.21875</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>14</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>2</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>19</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>24</v>
       </c>
-      <c r="L5" s="12">
-        <v>4</v>
-      </c>
-      <c r="M5" s="12">
+      <c r="L5" s="11">
+        <v>4</v>
+      </c>
+      <c r="M5" s="11">
         <v>0</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>40</v>
+      <c r="O5" s="26" t="s">
+        <v>39</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
@@ -1142,46 +1198,49 @@
       <c r="E6" s="6">
         <v>36</v>
       </c>
-      <c r="G6" s="12">
-        <f t="shared" si="0"/>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <f>IF(F6&gt;0, (E6-F6)/(D6-1)/B6,(E6/D6)/B6)</f>
         <v>1.125</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>14</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>2</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>19</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>26</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>2</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>79</v>
+      <c r="O6" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
+      <c r="A7" s="7">
         <v>44049</v>
       </c>
       <c r="B7" s="6">
@@ -1199,56 +1258,56 @@
       <c r="F7" s="6">
         <v>5</v>
       </c>
-      <c r="G7" s="12">
-        <f t="shared" si="0"/>
-        <v>1.1944444444444444</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="G7" s="11">
+        <f>IF(F7&gt;0, (E7-F7)/(D7-1)/B7,(E7/D7)/B7)</f>
+        <v>1.1875</v>
+      </c>
+      <c r="H7" s="11">
         <v>14</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>2</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>19</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>26</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>2</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>1</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>94</v>
+      <c r="O7" s="26" t="s">
+        <v>89</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A8" s="13">
+      <c r="A8" s="7">
         <v>44054</v>
       </c>
       <c r="B8" s="6">
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6">
         <v>8</v>
@@ -1259,52 +1318,53 @@
       <c r="F8" s="6">
         <v>9</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <f>IF(F8&gt;0, (E8-F8)/(D8-1)/B8,(E8/D8)/B8)</f>
         <v>1.3571428571428572</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>17</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>3</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>20</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>26</v>
       </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
         <v>0</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>105</v>
+      <c r="O8" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="R8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>107</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="22">
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1323,6 +1383,9 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1331,10 +1394,174 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" style="4"/>
+    <col min="8" max="8" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
+      <c r="B2" s="18">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="20" t="e">
+        <f>C2-L2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20">
+        <f>C3-C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="20">
+        <f t="shared" ref="D4:D10" si="0">C4-C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D10"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1368,30 +1595,30 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24">
+    <row r="2" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
+      <c r="B2" s="18">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20">
         <v>0.37361111111111112</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="23" t="s">
-        <v>96</v>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="19" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1401,7 +1628,7 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="21">
         <v>0.37986111111111115</v>
       </c>
       <c r="D3" s="4">
@@ -1411,7 +1638,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1421,7 +1648,7 @@
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="21">
         <v>0.3840277777777778</v>
       </c>
       <c r="D4" s="4">
@@ -1431,7 +1658,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1441,7 +1668,7 @@
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="21">
         <v>0.38611111111111113</v>
       </c>
       <c r="D5" s="4">
@@ -1451,7 +1678,7 @@
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1461,7 +1688,7 @@
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="21">
         <v>0.39166666666666666</v>
       </c>
       <c r="D6" s="4">
@@ -1471,7 +1698,7 @@
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1481,7 +1708,7 @@
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="21">
         <v>0.40069444444444446</v>
       </c>
       <c r="D7" s="4">
@@ -1494,7 +1721,7 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1504,7 +1731,7 @@
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="21">
         <v>0.40347222222222223</v>
       </c>
       <c r="D8" s="4">
@@ -1521,7 +1748,7 @@
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="21">
         <v>0.40763888888888888</v>
       </c>
       <c r="D9" s="4">
@@ -1531,7 +1758,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1541,7 +1768,7 @@
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="21">
         <v>0.40972222222222227</v>
       </c>
       <c r="D10" s="4">
@@ -1551,7 +1778,7 @@
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1560,7 +1787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -1599,10 +1826,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1628,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1651,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1674,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1697,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1720,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1757,10 +1984,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -1769,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1792,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1815,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1823,12 +2050,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1863,10 +2090,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -1909,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1932,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1952,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1992,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -2009,10 +2236,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -2029,215 +2256,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="8.7265625" style="4"/>
-    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="4"/>
-    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="4"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B10" s="4">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2334,7 +2353,7 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -2351,7 +2370,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -2368,7 +2387,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -2385,7 +2404,7 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -2402,7 +2421,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -2416,14 +2435,222 @@
         <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
         <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="4"/>
+    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/playtesting.xlsx
+++ b/data/playtesting.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEA720A-E42B-4B36-B699-411EFDD88EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="-28920" yWindow="22095" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="2" r:id="rId1"/>
     <sheet name="Next Session" sheetId="11" r:id="rId2"/>
-    <sheet name="GreedyP-Aug11-4p" sheetId="7" r:id="rId3"/>
-    <sheet name="GreedyP-Aug6" sheetId="6" r:id="rId4"/>
-    <sheet name="GreedyP-Aug 5" sheetId="5" r:id="rId5"/>
-    <sheet name="GreedyP-Aug 4, 4P" sheetId="3" r:id="rId6"/>
-    <sheet name="GreedyP-Aug 3" sheetId="1" r:id="rId7"/>
+    <sheet name="MurderHornets2" sheetId="14" r:id="rId3"/>
+    <sheet name="MurderHornets1" sheetId="13" r:id="rId4"/>
+    <sheet name="GreedyP-Aug11-4p" sheetId="7" r:id="rId5"/>
+    <sheet name="GreedyP-Aug6" sheetId="6" r:id="rId6"/>
+    <sheet name="GreedyP-Aug 5" sheetId="5" r:id="rId7"/>
+    <sheet name="GreedyP-Aug 4, 4P" sheetId="3" r:id="rId8"/>
+    <sheet name="GreedyP-Aug 3" sheetId="1" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="147">
   <si>
     <t>Date</t>
   </si>
@@ -359,14 +362,116 @@
   </si>
   <si>
     <t>Elapsed</t>
+  </si>
+  <si>
+    <t>ScriptKiddie+Bypass+Linger</t>
+  </si>
+  <si>
+    <t>Lookout+SmashNGrab+Bypass</t>
+  </si>
+  <si>
+    <t>Shutter+Linger+Hurry</t>
+  </si>
+  <si>
+    <t>StreetUrchin+Yank+WingIt</t>
+  </si>
+  <si>
+    <t>The Dark Horse Job</t>
+  </si>
+  <si>
+    <t>Street Urchin really shined - got 3 deep with a single idea and a sprint</t>
+  </si>
+  <si>
+    <t>Nothing from the event, although should Event 5 have ON or Adjacent??</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Decided to go for the full loot this time.</t>
+  </si>
+  <si>
+    <t>Script Kiddie should have an examine. This build isn't great. Had we decided to do one more noise, we would avoid the alert.</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>Took the deal. Crisis felt pretty harsh. Already lots of dogs in this one - reduce that? Add dog whistle instead of the $3k?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not sure if we're gonna make it here. It's going sooooo slow. </t>
+  </si>
+  <si>
+    <t>Grabbed ledger! Street Urchin has one idea right now. Woof. Removed the C6 crisis just feels mean at this point.</t>
+  </si>
+  <si>
+    <t>Landed directly Coming in Hot. Maybe add Lock the Loot?</t>
+  </si>
+  <si>
+    <t>Job Loot</t>
+  </si>
+  <si>
+    <t>$6k</t>
+  </si>
+  <si>
+    <t>Start of the Murder Hornets campaign. Need to make some Dog crisis rebalancing - they feel unfair</t>
+  </si>
+  <si>
+    <t>ScriptKiddie+Extract+Linger</t>
+  </si>
+  <si>
+    <t>StreetUrchin+Yank+Concoct</t>
+  </si>
+  <si>
+    <t>Shutter+Tamper+Hurry</t>
+  </si>
+  <si>
+    <t>Lookout+SmashNGrab+Extract</t>
+  </si>
+  <si>
+    <t>The Blind Justice Job</t>
+  </si>
+  <si>
+    <t>Betting $6k on the team</t>
+  </si>
+  <si>
+    <t>If you really want to make Blind Justice harder, add a hex to that A-entrance. Like the hex between B and C. Street Urchin+Script Kiddie handled the A-thing easily.</t>
+  </si>
+  <si>
+    <t>Ouch got spanked by Event 10. Could have been avoided.</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>At this stage probably home free.</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>Fumble the loot actually triggered - could have been bad.</t>
+  </si>
+  <si>
+    <t>100% to win and everyone got out. Almost a bit too easy? But still close. Got $4k just from grabbing. No Lucky Penny. Won the extra $6k from the Bookie.</t>
+  </si>
+  <si>
+    <t>$9k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -451,7 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -484,18 +589,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,11 +603,24 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -522,19 +628,21 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,6 +737,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -664,6 +789,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -839,16 +981,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.90625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.08984375" style="6" bestFit="1" customWidth="1"/>
@@ -861,150 +1003,155 @@
     <col min="11" max="11" width="6.36328125" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.90625" style="26" customWidth="1"/>
-    <col min="16" max="16" width="7.453125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="7.7265625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="3.81640625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="6.453125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="15.7265625" style="6" hidden="1" customWidth="1"/>
-    <col min="21" max="29" width="7.7265625" style="6" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="5.08984375" style="6" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="15.6328125" style="5" customWidth="1"/>
-    <col min="32" max="16384" width="8.7265625" style="5"/>
+    <col min="14" max="14" width="4.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.90625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="7.453125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="7.7265625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="3.81640625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="15.7265625" style="6" hidden="1" customWidth="1"/>
+    <col min="22" max="30" width="7.7265625" style="6" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="5.08984375" style="6" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="15.6328125" style="5" customWidth="1"/>
+    <col min="33" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="10" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:32" s="10" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AF1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="25"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="9" t="s">
+    <row r="2" spans="1:32" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="26"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>44035</v>
       </c>
@@ -1021,7 +1168,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="11">
-        <f>IF(F3&gt;0, (E3-F3)/(D3-1)/B3,(E3/D3)/B3)</f>
+        <f t="shared" ref="G3:G10" si="0">IF(F3&gt;0, (E3-F3)/(D3-1)/B3,(E3/D3)/B3)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="I3" s="11">
@@ -1036,42 +1183,42 @@
       <c r="M3" s="11">
         <v>0</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="P3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="6">
+      <c r="U3" s="6">
         <v>27</v>
       </c>
-      <c r="U3" s="6">
+      <c r="V3" s="6">
         <v>16</v>
       </c>
-      <c r="V3" s="6">
+      <c r="W3" s="6">
         <v>9</v>
       </c>
-      <c r="W3" s="6">
+      <c r="X3" s="6">
         <v>10</v>
       </c>
-      <c r="X3" s="6">
+      <c r="Y3" s="6">
         <v>15</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>7</v>
       </c>
       <c r="Z3" s="6">
         <v>7</v>
       </c>
       <c r="AA3" s="6">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="6">
         <v>8</v>
       </c>
-      <c r="AD3" s="6">
-        <f>SUM(T3:AC3)</f>
+      <c r="AE3" s="6">
+        <f>SUM(U3:AD3)</f>
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>44046</v>
       </c>
@@ -1088,7 +1235,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="11">
-        <f>IF(F4&gt;0, (E4-F4)/(D4-1)/B4,(E4/D4)/B4)</f>
+        <f t="shared" si="0"/>
         <v>1.5925925925925926</v>
       </c>
       <c r="I4" s="11">
@@ -1103,26 +1250,26 @@
       <c r="M4" s="11">
         <v>0</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="P4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AE4" s="5" t="s">
+      <c r="AF4" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>44047</v>
       </c>
@@ -1139,7 +1286,7 @@
         <v>39</v>
       </c>
       <c r="G5" s="11">
-        <f>IF(F5&gt;0, (E5-F5)/(D5-1)/B5,(E5/D5)/B5)</f>
+        <f t="shared" si="0"/>
         <v>1.21875</v>
       </c>
       <c r="H5" s="11">
@@ -1160,29 +1307,29 @@
       <c r="M5" s="11">
         <v>0</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="P5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="S5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>44048</v>
       </c>
@@ -1202,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="11">
-        <f>IF(F6&gt;0, (E6-F6)/(D6-1)/B6,(E6/D6)/B6)</f>
+        <f t="shared" si="0"/>
         <v>1.125</v>
       </c>
       <c r="H6" s="11">
@@ -1220,26 +1367,26 @@
       <c r="M6" s="11">
         <v>2</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="P6" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="S6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="T6" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>44049</v>
       </c>
@@ -1259,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="11">
-        <f>IF(F7&gt;0, (E7-F7)/(D7-1)/B7,(E7/D7)/B7)</f>
+        <f t="shared" si="0"/>
         <v>1.1875</v>
       </c>
       <c r="H7" s="11">
@@ -1280,26 +1427,26 @@
       <c r="M7" s="11">
         <v>1</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="P7" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="S7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="T7" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>44054</v>
       </c>
@@ -1319,7 +1466,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="11">
-        <f>IF(F8&gt;0, (E8-F8)/(D8-1)/B8,(E8/D8)/B8)</f>
+        <f t="shared" si="0"/>
         <v>1.3571428571428572</v>
       </c>
       <c r="H8" s="11">
@@ -1340,42 +1487,165 @@
       <c r="M8" s="11">
         <v>0</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="P8" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="Q8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="R8" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="S8" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="T8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" s="5" t="s">
+      <c r="AF8" s="5" t="s">
         <v>102</v>
       </c>
     </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>44186</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6">
+        <v>39</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="0"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="H9" s="11">
+        <v>5</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11">
+        <v>22</v>
+      </c>
+      <c r="K9" s="11">
+        <v>27</v>
+      </c>
+      <c r="L9" s="11">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>44187</v>
+      </c>
+      <c r="B10" s="6">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6">
+        <v>33</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="H10" s="11">
+        <v>11</v>
+      </c>
+      <c r="I10" s="11">
+        <v>2</v>
+      </c>
+      <c r="J10" s="11">
+        <v>22</v>
+      </c>
+      <c r="K10" s="11">
+        <v>23</v>
+      </c>
+      <c r="L10" s="11">
+        <v>2</v>
+      </c>
+      <c r="M10" s="11">
+        <v>1</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
+  <mergeCells count="23">
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="T1:AC1"/>
+    <mergeCell ref="U1:AD1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -1383,9 +1653,16 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1393,17 +1670,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="4"/>
-    <col min="3" max="3" width="10.36328125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.7265625" style="4"/>
@@ -1420,7 +1697,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1445,26 +1722,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="20" t="e">
+    <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="16" t="e">
         <f>C2-L2</f>
         <v>#VALUE!</v>
       </c>
       <c r="E2"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="17" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="22" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1475,7 +1752,7 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="16">
         <f>C3-C2</f>
         <v>0</v>
       </c>
@@ -1485,7 +1762,7 @@
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="16">
         <f t="shared" ref="D4:D10" si="0">C4-C3</f>
         <v>0</v>
       </c>
@@ -1495,7 +1772,7 @@
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1505,7 +1782,7 @@
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1515,7 +1792,7 @@
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1525,7 +1802,7 @@
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1535,7 +1812,7 @@
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1545,7 +1822,7 @@
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1557,7 +1834,562 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0502A4-DCF3-47D0-8B9F-87F211B2F5A2}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" style="4"/>
+    <col min="8" max="8" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31">
+        <v>44187</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="16">
+        <f>C2-L2</f>
+        <v>0</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16">
+        <f>C3-C2</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="shared" ref="D4:D10" si="0">C4-C3</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017D68CB-F55D-4072-9720-2EEE29F7BFA2}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" style="4"/>
+    <col min="8" max="8" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31">
+        <v>44186</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="16" t="e">
+        <f>C2-L2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16">
+        <f>C3-C2</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="shared" ref="D4:D10" si="0">C4-C3</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>24</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1604,20 +2436,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20">
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
         <v>0.37361111111111112</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="19" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1628,7 +2460,7 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="17">
         <v>0.37986111111111115</v>
       </c>
       <c r="D3" s="4">
@@ -1648,7 +2480,7 @@
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="17">
         <v>0.3840277777777778</v>
       </c>
       <c r="D4" s="4">
@@ -1668,7 +2500,7 @@
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="17">
         <v>0.38611111111111113</v>
       </c>
       <c r="D5" s="4">
@@ -1688,7 +2520,7 @@
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="17">
         <v>0.39166666666666666</v>
       </c>
       <c r="D6" s="4">
@@ -1708,7 +2540,7 @@
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="17">
         <v>0.40069444444444446</v>
       </c>
       <c r="D7" s="4">
@@ -1731,7 +2563,7 @@
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="17">
         <v>0.40347222222222223</v>
       </c>
       <c r="D8" s="4">
@@ -1748,7 +2580,7 @@
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="17">
         <v>0.40763888888888888</v>
       </c>
       <c r="D9" s="4">
@@ -1768,7 +2600,7 @@
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="17">
         <v>0.40972222222222227</v>
       </c>
       <c r="D10" s="4">
@@ -1787,8 +2619,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -2050,8 +2882,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
@@ -2264,8 +3096,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
@@ -2449,8 +3281,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">

--- a/data/playtesting.xlsx
+++ b/data/playtesting.xlsx
@@ -3,27 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEA720A-E42B-4B36-B699-411EFDD88EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894D7B39-F9E4-46E4-B47C-BFC61C546CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="22095" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="22095" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="2" r:id="rId1"/>
     <sheet name="Next Session" sheetId="11" r:id="rId2"/>
-    <sheet name="MurderHornets2" sheetId="14" r:id="rId3"/>
-    <sheet name="MurderHornets1" sheetId="13" r:id="rId4"/>
-    <sheet name="GreedyP-Aug11-4p" sheetId="7" r:id="rId5"/>
-    <sheet name="GreedyP-Aug6" sheetId="6" r:id="rId6"/>
-    <sheet name="GreedyP-Aug 5" sheetId="5" r:id="rId7"/>
-    <sheet name="GreedyP-Aug 4, 4P" sheetId="3" r:id="rId8"/>
-    <sheet name="GreedyP-Aug 3" sheetId="1" r:id="rId9"/>
+    <sheet name="MurderHornets3" sheetId="15" r:id="rId3"/>
+    <sheet name="MurderHornets2" sheetId="14" r:id="rId4"/>
+    <sheet name="MurderHornets1" sheetId="13" r:id="rId5"/>
+    <sheet name="GreedyP-Aug11-4p" sheetId="7" r:id="rId6"/>
+    <sheet name="GreedyP-Aug6" sheetId="6" r:id="rId7"/>
+    <sheet name="GreedyP-Aug 5" sheetId="5" r:id="rId8"/>
+    <sheet name="GreedyP-Aug 4, 4P" sheetId="3" r:id="rId9"/>
+    <sheet name="GreedyP-Aug 3" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="158">
   <si>
     <t>Date</t>
   </si>
@@ -464,6 +465,39 @@
   </si>
   <si>
     <t>$9k</t>
+  </si>
+  <si>
+    <t>The Hospitality Job</t>
+  </si>
+  <si>
+    <t>BlackHat+Extract+Linger</t>
+  </si>
+  <si>
+    <t>Sentinel+SmashNGrab+Extract</t>
+  </si>
+  <si>
+    <t>Tinkerer+Tamper+Hurry</t>
+  </si>
+  <si>
+    <t>Mastermind+Yank+Concoct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started with $16k team cash. </t>
+  </si>
+  <si>
+    <t>Betting $8k on the team. Bought Plasma Torch for $5k, replaced two Guards with blanks for $3k.</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Added one Guard. Found keycard because we did two Discovers and a Stride this round.</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Event didn't impact us</t>
   </si>
 </sst>
 </file>
@@ -556,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -579,9 +613,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -616,6 +647,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,20 +665,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -982,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -996,160 +1024,157 @@
     <col min="4" max="4" width="7.08984375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.453125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.08984375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="7.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.08984375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.7265625" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.90625" style="18" customWidth="1"/>
-    <col min="17" max="17" width="7.453125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="7.7265625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="3.81640625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="18.90625" style="17" customWidth="1"/>
+    <col min="17" max="20" width="5.08984375" style="17" customWidth="1"/>
     <col min="21" max="21" width="15.7265625" style="6" hidden="1" customWidth="1"/>
     <col min="22" max="30" width="7.7265625" style="6" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="5.08984375" style="6" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="52.90625" style="6" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="15.6328125" style="5" customWidth="1"/>
     <col min="33" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="10" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:32" s="9" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AF1" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="9" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
@@ -1167,26 +1192,26 @@
       <c r="E3" s="6">
         <v>28</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <f t="shared" ref="G3:G10" si="0">IF(F3&gt;0, (E3-F3)/(D3-1)/B3,(E3/D3)/B3)</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>1</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>18</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>24</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>0</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="17" t="s">
         <v>19</v>
       </c>
       <c r="U3" s="6">
@@ -1234,35 +1259,35 @@
       <c r="E4" s="6">
         <v>43</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <f t="shared" si="0"/>
         <v>1.5925925925925926</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>2</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>19</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>24</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <v>0</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="17" t="s">
         <v>57</v>
       </c>
       <c r="AF4" s="5" t="s">
@@ -1285,44 +1310,44 @@
       <c r="E5" s="6">
         <v>39</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f t="shared" si="0"/>
         <v>1.21875</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>14</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>2</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>19</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>24</v>
       </c>
-      <c r="L5" s="11">
-        <v>4</v>
-      </c>
-      <c r="M5" s="11">
+      <c r="L5" s="10">
+        <v>4</v>
+      </c>
+      <c r="M5" s="10">
         <v>0</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="17" t="s">
         <v>53</v>
       </c>
       <c r="AF5" s="5" t="s">
@@ -1348,41 +1373,41 @@
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <f t="shared" si="0"/>
         <v>1.125</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>14</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>2</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>19</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>26</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>2</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="17" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1405,44 +1430,44 @@
       <c r="F7" s="6">
         <v>5</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <f t="shared" si="0"/>
         <v>1.1875</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>14</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>2</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>19</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>26</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>2</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="10">
         <v>1</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="17" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1465,44 +1490,44 @@
       <c r="F8" s="6">
         <v>9</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f t="shared" si="0"/>
         <v>1.3571428571428572</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>17</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>3</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>20</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>26</v>
       </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
         <v>0</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="17" t="s">
         <v>99</v>
       </c>
       <c r="AF8" s="5" t="s">
@@ -1528,47 +1553,47 @@
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
         <v>1.0833333333333333</v>
       </c>
-      <c r="H9" s="11">
-        <v>5</v>
-      </c>
-      <c r="I9" s="11">
+      <c r="H9" s="10">
+        <v>5</v>
+      </c>
+      <c r="I9" s="10">
         <v>1</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>22</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>27</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>1</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>1</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="10" t="s">
         <v>129</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="17" t="s">
         <v>116</v>
       </c>
       <c r="AF9" s="5" t="s">
@@ -1594,52 +1619,82 @@
       <c r="F10" s="6">
         <v>2</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <f t="shared" si="0"/>
         <v>1.2916666666666667</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>11</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>2</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>22</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>23</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>2</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <v>1</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="10" t="s">
         <v>146</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="17" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="C11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="E1:E2"/>
@@ -1656,16 +1711,217 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="4"/>
+    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1680,7 +1936,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="4"/>
-    <col min="3" max="3" width="10.36328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.7265625" style="4"/>
@@ -1697,7 +1953,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1722,26 +1978,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="16" t="e">
+    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="15" t="e">
         <f>C2-L2</f>
         <v>#VALUE!</v>
       </c>
       <c r="E2"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="13" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1752,7 +2008,7 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f>C3-C2</f>
         <v>0</v>
       </c>
@@ -1762,7 +2018,7 @@
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f t="shared" ref="D4:D10" si="0">C4-C3</f>
         <v>0</v>
       </c>
@@ -1772,7 +2028,7 @@
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1782,7 +2038,7 @@
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1792,7 +2048,7 @@
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1802,7 +2058,7 @@
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1812,7 +2068,7 @@
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1822,7 +2078,7 @@
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1834,17 +2090,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0502A4-DCF3-47D0-8B9F-87F211B2F5A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36AF2DE-5DE3-4E29-B50E-550E73822A31}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="4"/>
-    <col min="3" max="3" width="10.36328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.7265625" style="4"/>
@@ -1861,7 +2117,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1886,45 +2142,45 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31">
+    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23">
         <v>44187</v>
       </c>
-      <c r="B2" s="14">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="16">
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="15">
         <f>C2-L2</f>
         <v>0</v>
       </c>
       <c r="E2"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="22"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f>C3-C2</f>
         <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>5</v>
       </c>
-      <c r="F3" s="4">
-        <v>2</v>
+      <c r="F3" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
@@ -1933,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1941,7 +2197,7 @@
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f t="shared" ref="D4:D10" si="0">C4-C3</f>
         <v>0</v>
       </c>
@@ -1949,13 +2205,13 @@
         <v>6</v>
       </c>
       <c r="F4" s="4">
-        <v>6</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -1963,24 +2219,9 @@
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -1988,23 +2229,8 @@
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>6</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2013,24 +2239,9 @@
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4">
-        <v>20</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -2038,27 +2249,9 @@
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4">
-        <v>22</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -2066,15 +2259,9 @@
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -2082,7 +2269,7 @@
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2098,17 +2285,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017D68CB-F55D-4072-9720-2EEE29F7BFA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0502A4-DCF3-47D0-8B9F-87F211B2F5A2}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E3" sqref="E3:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" style="4"/>
-    <col min="3" max="3" width="10.36328125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.7265625" style="4"/>
@@ -2125,7 +2312,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2150,37 +2337,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31">
-        <v>44186</v>
-      </c>
-      <c r="B2" s="14">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="16" t="e">
+    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23">
+        <v>44187</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="15">
         <f>C2-L2</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E2"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="13" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="22" t="s">
-        <v>111</v>
-      </c>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <f>C3-C2</f>
         <v>0</v>
       </c>
@@ -2197,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -2205,7 +2392,7 @@
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <f t="shared" ref="D4:D10" si="0">C4-C3</f>
         <v>0</v>
       </c>
@@ -2213,16 +2400,13 @@
         <v>6</v>
       </c>
       <c r="F4" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -2230,24 +2414,24 @@
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>120</v>
+        <v>5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -2255,24 +2439,24 @@
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>4</v>
-      </c>
-      <c r="F6" s="4">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="H6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -2280,18 +2464,15 @@
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -2300,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -2308,15 +2489,18 @@
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" s="4">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -2325,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -2333,27 +2517,15 @@
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="F9" s="4">
-        <v>21</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -2361,21 +2533,9 @@
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4">
-        <v>24</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -2389,6 +2549,297 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017D68CB-F55D-4072-9720-2EEE29F7BFA2}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" style="4"/>
+    <col min="8" max="8" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23">
+        <v>44186</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="15" t="e">
+        <f>C2-L2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3-C2</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15">
+        <f t="shared" ref="D4:D10" si="0">C4-C3</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>24</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -2436,20 +2887,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16">
+    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
         <v>0.37361111111111112</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="15" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2460,7 +2911,7 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>0.37986111111111115</v>
       </c>
       <c r="D3" s="4">
@@ -2480,7 +2931,7 @@
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>0.3840277777777778</v>
       </c>
       <c r="D4" s="4">
@@ -2500,7 +2951,7 @@
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>0.38611111111111113</v>
       </c>
       <c r="D5" s="4">
@@ -2520,7 +2971,7 @@
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>0.39166666666666666</v>
       </c>
       <c r="D6" s="4">
@@ -2540,7 +2991,7 @@
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>0.40069444444444446</v>
       </c>
       <c r="D7" s="4">
@@ -2563,7 +3014,7 @@
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>0.40347222222222223</v>
       </c>
       <c r="D8" s="4">
@@ -2580,7 +3031,7 @@
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>0.40763888888888888</v>
       </c>
       <c r="D9" s="4">
@@ -2600,7 +3051,7 @@
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>0.40972222222222227</v>
       </c>
       <c r="D10" s="4">
@@ -2619,7 +3070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -2882,7 +3333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -3096,7 +3547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -3279,212 +3730,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="8.7265625" style="4"/>
-    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="4"/>
-    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="4"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B10" s="4">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/playtesting.xlsx
+++ b/data/playtesting.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894D7B39-F9E4-46E4-B47C-BFC61C546CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F77551-96ED-4EAC-BE22-4616C4AE9FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="22095" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="22095" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="167">
   <si>
     <t>Date</t>
   </si>
@@ -482,9 +482,6 @@
     <t>Mastermind+Yank+Concoct</t>
   </si>
   <si>
-    <t xml:space="preserve">Started with $16k team cash. </t>
-  </si>
-  <si>
     <t>Betting $8k on the team. Bought Plasma Torch for $5k, replaced two Guards with blanks for $3k.</t>
   </si>
   <si>
@@ -498,6 +495,36 @@
   </si>
   <si>
     <t>Event didn't impact us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would be nice if we had a Watchtower sweep here. </t>
+  </si>
+  <si>
+    <t>Got hit by this event</t>
+  </si>
+  <si>
+    <t>Unlocked the door this round</t>
+  </si>
+  <si>
+    <t>Got the hostage this round</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>Last 6 noise didn't matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasn't sure about this - but had a crapton of ideas to get out with. Black Hat had 3 ideas - gonna need a 4 or higher to get out. Mastermind had 7 ideas, so he's out obviously. Hostage had 2 at the end. Sentinel was massive idea farm by the end and had 11 ideas at the end - gonna save our bacon. Tinkerer had 4 ideas. So the sentinel gave 1 idea to the hostage and 1 idea to the Tinkerer, and they got out. Then the Black Hat got 4 more and we all got out. </t>
+  </si>
+  <si>
+    <t>100% chance of getting out. Didn't get to the safe.</t>
+  </si>
+  <si>
+    <t>$4k</t>
+  </si>
+  <si>
+    <t>Started with $16k team cash. Bought Plasma Torch and did $3k on Beat Cop. Bet $8k on ourselves and won</t>
   </si>
 </sst>
 </file>
@@ -590,7 +617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -665,11 +692,17 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1013,7 +1046,7 @@
   <dimension ref="A1:AF11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1052,37 +1085,37 @@
       <c r="C1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="29" t="s">
         <v>128</v>
       </c>
       <c r="O1" s="24" t="s">
@@ -1126,17 +1159,17 @@
       <c r="A2" s="27"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
@@ -1193,7 +1226,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="10">
-        <f t="shared" ref="G3:G10" si="0">IF(F3&gt;0, (E3-F3)/(D3-1)/B3,(E3/D3)/B3)</f>
+        <f t="shared" ref="G3:G11" si="0">IF(F3&gt;0, (E3-F3)/(D3-1)/B3,(E3/D3)/B3)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="I3" s="10">
@@ -1664,12 +1697,55 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>44189</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
       <c r="C11" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="D11" s="6">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6">
+        <v>48</v>
+      </c>
+      <c r="F11" s="6">
+        <v>6</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>1.3125</v>
+      </c>
+      <c r="H11" s="10">
+        <v>9</v>
+      </c>
+      <c r="I11" s="10">
+        <v>3</v>
+      </c>
+      <c r="J11" s="10">
+        <v>22</v>
+      </c>
+      <c r="K11" s="10">
+        <v>27</v>
+      </c>
+      <c r="L11" s="10">
+        <v>1</v>
+      </c>
+      <c r="M11" s="10">
+        <v>2</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>165</v>
+      </c>
       <c r="O11" s="6" t="s">
         <v>147</v>
       </c>
+      <c r="P11" t="s">
+        <v>164</v>
+      </c>
       <c r="Q11" s="17" t="s">
         <v>148</v>
       </c>
@@ -1683,18 +1759,11 @@
         <v>151</v>
       </c>
       <c r="AF11" s="5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="N1:N2"/>
     <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="E1:E2"/>
@@ -1711,6 +1780,13 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2091,10 +2167,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36AF2DE-5DE3-4E29-B50E-550E73822A31}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2160,7 +2236,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>110</v>
@@ -2180,16 +2256,16 @@
         <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>154</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -2208,10 +2284,10 @@
         <v>4</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" t="s">
         <v>156</v>
-      </c>
-      <c r="J4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -2223,6 +2299,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E5" s="4">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
@@ -2233,6 +2321,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
@@ -2242,6 +2339,15 @@
       <c r="D7" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -2253,6 +2359,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
@@ -2263,6 +2378,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E9" s="4">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
@@ -2273,10 +2400,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E10" s="4">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4">
+        <v>24</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J12" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/data/playtesting.xlsx
+++ b/data/playtesting.xlsx
@@ -3,28 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F77551-96ED-4EAC-BE22-4616C4AE9FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5DB69B-07C6-40A6-A86D-AD7A36BE142E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="22095" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="22095" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="2" r:id="rId1"/>
     <sheet name="Next Session" sheetId="11" r:id="rId2"/>
-    <sheet name="MurderHornets3" sheetId="15" r:id="rId3"/>
-    <sheet name="MurderHornets2" sheetId="14" r:id="rId4"/>
-    <sheet name="MurderHornets1" sheetId="13" r:id="rId5"/>
-    <sheet name="GreedyP-Aug11-4p" sheetId="7" r:id="rId6"/>
-    <sheet name="GreedyP-Aug6" sheetId="6" r:id="rId7"/>
-    <sheet name="GreedyP-Aug 5" sheetId="5" r:id="rId8"/>
-    <sheet name="GreedyP-Aug 4, 4P" sheetId="3" r:id="rId9"/>
-    <sheet name="GreedyP-Aug 3" sheetId="1" r:id="rId10"/>
+    <sheet name="MurderHornets4" sheetId="16" r:id="rId3"/>
+    <sheet name="MurderHornets3" sheetId="15" r:id="rId4"/>
+    <sheet name="MurderHornets2" sheetId="14" r:id="rId5"/>
+    <sheet name="MurderHornets1" sheetId="13" r:id="rId6"/>
+    <sheet name="GreedyP-Aug11-4p" sheetId="7" r:id="rId7"/>
+    <sheet name="GreedyP-Aug6" sheetId="6" r:id="rId8"/>
+    <sheet name="GreedyP-Aug 5" sheetId="5" r:id="rId9"/>
+    <sheet name="GreedyP-Aug 4, 4P" sheetId="3" r:id="rId10"/>
+    <sheet name="GreedyP-Aug 3" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="183">
   <si>
     <t>Date</t>
   </si>
@@ -525,6 +526,54 @@
   </si>
   <si>
     <t>Started with $16k team cash. Bought Plasma Torch and did $3k on Beat Cop. Bet $8k on ourselves and won</t>
+  </si>
+  <si>
+    <t>The Black Box</t>
+  </si>
+  <si>
+    <t>BlackHat+Extract+Intrude</t>
+  </si>
+  <si>
+    <t>Sentinel+Steal+Extract</t>
+  </si>
+  <si>
+    <t>Tinkerer+Tamper+Prowl</t>
+  </si>
+  <si>
+    <t>Mastermind+SpliceIn+Concoct</t>
+  </si>
+  <si>
+    <t>Decided to Ransack outside and got burned by those Events</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Got the Documents</t>
+  </si>
+  <si>
+    <t>Got to the Safe</t>
+  </si>
+  <si>
+    <t>Released the Guide. Detonate - nice. Overwhelmed hit the Black Hat because of the Kennel</t>
+  </si>
+  <si>
+    <t>Guide got the Documents. Hit us hard with the I Thought I Had Him</t>
+  </si>
+  <si>
+    <t>Guide used his special</t>
+  </si>
+  <si>
+    <t>Guide got out! Wow before the alarm went off.</t>
+  </si>
+  <si>
+    <t>Mastermind ran back in to get $4k. Pretty easy at the end. 100% chance of winning</t>
+  </si>
+  <si>
+    <t>$15k</t>
+  </si>
+  <si>
+    <t>100% chance of getting out. Got $15k in loot and Safecracking Tools. Gonna shorten the events a bit. Could be much harder, but still satisfying. Messed up some blanks too.</t>
   </si>
 </sst>
 </file>
@@ -617,7 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -686,23 +735,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1043,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1067,7 +1128,10 @@
     <col min="14" max="14" width="4.7265625" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.90625" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.90625" style="17" customWidth="1"/>
-    <col min="17" max="20" width="5.08984375" style="17" customWidth="1"/>
+    <col min="17" max="17" width="24.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.7265625" style="17" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.7265625" style="6" hidden="1" customWidth="1"/>
     <col min="22" max="30" width="7.7265625" style="6" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="52.90625" style="6" hidden="1" customWidth="1"/>
@@ -1076,7 +1140,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="9" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -1085,37 +1149,37 @@
       <c r="C1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="28" t="s">
         <v>128</v>
       </c>
       <c r="O1" s="24" t="s">
@@ -1156,20 +1220,20 @@
       </c>
     </row>
     <row r="2" spans="1:32" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
@@ -1226,7 +1290,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="10">
-        <f t="shared" ref="G3:G11" si="0">IF(F3&gt;0, (E3-F3)/(D3-1)/B3,(E3/D3)/B3)</f>
+        <f t="shared" ref="G3:G12" si="0">IF(F3&gt;0, (E3-F3)/(D3-1)/B3,(E3/D3)/B3)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="I3" s="10">
@@ -1762,8 +1826,78 @@
         <v>166</v>
       </c>
     </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>44193</v>
+      </c>
+      <c r="B12" s="6">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6">
+        <v>42</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="H12" s="10">
+        <v>5</v>
+      </c>
+      <c r="I12" s="10">
+        <v>4</v>
+      </c>
+      <c r="J12" s="10">
+        <v>22</v>
+      </c>
+      <c r="K12" s="10">
+        <v>28</v>
+      </c>
+      <c r="L12" s="10">
+        <v>2</v>
+      </c>
+      <c r="M12" s="10">
+        <v>2</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="E1:E2"/>
@@ -1780,13 +1914,6 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1794,6 +1921,191 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="4"/>
+    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2006,7 +2318,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="A1:XFD1048576"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2166,10 +2478,273 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EF70A6-FCA1-4E2C-9C50-C10E56838813}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" style="4"/>
+    <col min="8" max="8" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27" style="35" customWidth="1"/>
+    <col min="11" max="11" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23">
+        <v>44193</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="15">
+        <f>C2-L2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="32"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3-C2</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13">
+        <v>2</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13">
+        <v>2</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15">
+        <f t="shared" ref="D4:D10" si="0">C4-C3</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>13</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>21</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4">
+        <v>24</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36AF2DE-5DE3-4E29-B50E-550E73822A31}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2434,7 +3009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0502A4-DCF3-47D0-8B9F-87F211B2F5A2}">
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -2698,7 +3273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017D68CB-F55D-4072-9720-2EEE29F7BFA2}">
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -2989,7 +3564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -3220,7 +3795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -3483,7 +4058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -3695,189 +4270,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="8.7265625" style="4"/>
-    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="4"/>
-    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="4"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>44046</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/playtesting.xlsx
+++ b/data/playtesting.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5DB69B-07C6-40A6-A86D-AD7A36BE142E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1A3995-DF43-49B2-BE70-A9FB97593F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="22095" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="2" r:id="rId1"/>
@@ -573,7 +573,7 @@
     <t>$15k</t>
   </si>
   <si>
-    <t>100% chance of getting out. Got $15k in loot and Safecracking Tools. Gonna shorten the events a bit. Could be much harder, but still satisfying. Messed up some blanks too.</t>
+    <t>100% chance of getting out. Got $15k in loot and Safecracking Tools. Gonna shorten the events a bit. Could be much harder, but still satisfying. Messed up some blanks too. Team now has $28k</t>
   </si>
 </sst>
 </file>
@@ -729,10 +729,28 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -746,24 +764,6 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1143,103 +1143,103 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AF1" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="31"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="22" t="s">
         <v>31</v>
       </c>
@@ -1270,8 +1270,8 @@
       <c r="AD2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
@@ -1891,13 +1891,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="N1:N2"/>
     <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="E1:E2"/>
@@ -1914,6 +1907,13 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2494,7 +2494,7 @@
     <col min="6" max="7" width="8.7265625" style="4"/>
     <col min="8" max="8" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6328125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27" style="35" customWidth="1"/>
+    <col min="10" max="10" width="27" style="27" customWidth="1"/>
     <col min="11" max="11" width="9.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.7265625" style="4"/>
   </cols>
@@ -2527,7 +2527,7 @@
       <c r="I1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       <c r="K2" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="32"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
@@ -2568,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="11"/>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="26" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
       <c r="F5" s="4">
         <v>8</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="27" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       <c r="G6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="27" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="27" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       <c r="G8" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="27" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="27" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="G10" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="27" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2730,7 +2730,7 @@
       <c r="G11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="27" t="s">
         <v>180</v>
       </c>
     </row>

--- a/data/playtesting.xlsx
+++ b/data/playtesting.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1A3995-DF43-49B2-BE70-A9FB97593F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58088D76-1666-46ED-BAD9-99E10940EDBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="22095" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="2" r:id="rId1"/>
     <sheet name="Next Session" sheetId="11" r:id="rId2"/>
-    <sheet name="MurderHornets4" sheetId="16" r:id="rId3"/>
-    <sheet name="MurderHornets3" sheetId="15" r:id="rId4"/>
-    <sheet name="MurderHornets2" sheetId="14" r:id="rId5"/>
-    <sheet name="MurderHornets1" sheetId="13" r:id="rId6"/>
-    <sheet name="GreedyP-Aug11-4p" sheetId="7" r:id="rId7"/>
-    <sheet name="GreedyP-Aug6" sheetId="6" r:id="rId8"/>
-    <sheet name="GreedyP-Aug 5" sheetId="5" r:id="rId9"/>
-    <sheet name="GreedyP-Aug 4, 4P" sheetId="3" r:id="rId10"/>
-    <sheet name="GreedyP-Aug 3" sheetId="1" r:id="rId11"/>
+    <sheet name="MurderHornets5" sheetId="18" r:id="rId3"/>
+    <sheet name="MurderHornets4" sheetId="16" r:id="rId4"/>
+    <sheet name="MurderHornets3" sheetId="15" r:id="rId5"/>
+    <sheet name="MurderHornets2" sheetId="14" r:id="rId6"/>
+    <sheet name="MurderHornets1" sheetId="13" r:id="rId7"/>
+    <sheet name="GreedyP-Aug11-4p" sheetId="7" r:id="rId8"/>
+    <sheet name="GreedyP-Aug6" sheetId="6" r:id="rId9"/>
+    <sheet name="GreedyP-Aug 5" sheetId="5" r:id="rId10"/>
+    <sheet name="GreedyP-Aug 4, 4P" sheetId="3" r:id="rId11"/>
+    <sheet name="GreedyP-Aug 3" sheetId="1" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="191">
   <si>
     <t>Date</t>
   </si>
@@ -574,6 +575,30 @@
   </si>
   <si>
     <t>100% chance of getting out. Got $15k in loot and Safecracking Tools. Gonna shorten the events a bit. Could be much harder, but still satisfying. Messed up some blanks too. Team now has $28k</t>
+  </si>
+  <si>
+    <t>The Final Score Pt 1</t>
+  </si>
+  <si>
+    <t>Sneak saved our butts, so did the blank from the beat cop</t>
+  </si>
+  <si>
+    <t>Got the keycard</t>
+  </si>
+  <si>
+    <t>Transferred the keycard through 3 characters via 3 Sprints. Used Mastermind's one-time ability</t>
+  </si>
+  <si>
+    <t>Two characters lost some precious ideas. Ouch.</t>
+  </si>
+  <si>
+    <t>Just got to the safe this round. Wow this will be close.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok, can't get this one done but I think it's still possible. My Black Hat ran out of ideas and that KILLED us. So if we had that, it'd be close. I also wonder if some money toward reveals would have really helped us too. And maybe better timing in general - some wasted moves here and there. Man that was exciting. Even just one or two more events in the deck might make this happen. But it's so close. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started with $28k. Bought some tools - should've spent more money on reveals actually. </t>
   </si>
 </sst>
 </file>
@@ -747,12 +772,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -764,6 +783,12 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1104,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1140,7 +1165,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="9" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
@@ -1149,37 +1174,37 @@
       <c r="C1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="32" t="s">
         <v>128</v>
       </c>
       <c r="O1" s="28" t="s">
@@ -1220,20 +1245,20 @@
       </c>
     </row>
     <row r="2" spans="1:32" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
@@ -1290,7 +1315,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="10">
-        <f t="shared" ref="G3:G12" si="0">IF(F3&gt;0, (E3-F3)/(D3-1)/B3,(E3/D3)/B3)</f>
+        <f t="shared" ref="G3:G13" si="0">IF(F3&gt;0, (E3-F3)/(D3-1)/B3,(E3/D3)/B3)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="I3" s="10">
@@ -1889,8 +1914,81 @@
         <v>171</v>
       </c>
     </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>44216</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6">
+        <v>41</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1388888888888888</v>
+      </c>
+      <c r="H13" s="10">
+        <v>16</v>
+      </c>
+      <c r="I13" s="10">
+        <v>4</v>
+      </c>
+      <c r="J13" s="10">
+        <v>22</v>
+      </c>
+      <c r="K13" s="10">
+        <v>27</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
+        <v>1</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="S13" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF13" s="27" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="E1:E2"/>
@@ -1907,13 +2005,6 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1921,6 +2012,220 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="4"/>
+    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2105,7 +2410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2478,6 +2783,253 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C4F1C5-5C3D-49F7-A3ED-CEEB7D48D328}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" style="4"/>
+    <col min="8" max="8" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27" style="27" customWidth="1"/>
+    <col min="11" max="11" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23">
+        <v>44216</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="15">
+        <f>C2-L2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3-C2</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13">
+        <v>2</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15">
+        <f t="shared" ref="D4:D10" si="0">C4-C3</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>9</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>20</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>23</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>24</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EF70A6-FCA1-4E2C-9C50-C10E56838813}">
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -2740,7 +3292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36AF2DE-5DE3-4E29-B50E-550E73822A31}">
   <dimension ref="A1:L12"/>
   <sheetViews>
@@ -3009,7 +3561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0502A4-DCF3-47D0-8B9F-87F211B2F5A2}">
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -3273,7 +3825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017D68CB-F55D-4072-9720-2EEE29F7BFA2}">
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -3564,7 +4116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -3795,7 +4347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -4056,218 +4608,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="8.7265625" style="4"/>
-    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="4"/>
-    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="4"/>
-    <col min="7" max="7" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6328125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4">
-        <v>6</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>44048</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4</v>
-      </c>
-      <c r="I9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/playtesting.xlsx
+++ b/data/playtesting.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58088D76-1666-46ED-BAD9-99E10940EDBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BDD35F-2200-4888-8704-A8F9C80C6D76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="22095" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="22095" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="2" r:id="rId1"/>
     <sheet name="Next Session" sheetId="11" r:id="rId2"/>
-    <sheet name="MurderHornets5" sheetId="18" r:id="rId3"/>
-    <sheet name="MurderHornets4" sheetId="16" r:id="rId4"/>
-    <sheet name="MurderHornets3" sheetId="15" r:id="rId5"/>
-    <sheet name="MurderHornets2" sheetId="14" r:id="rId6"/>
-    <sheet name="MurderHornets1" sheetId="13" r:id="rId7"/>
-    <sheet name="GreedyP-Aug11-4p" sheetId="7" r:id="rId8"/>
-    <sheet name="GreedyP-Aug6" sheetId="6" r:id="rId9"/>
-    <sheet name="GreedyP-Aug 5" sheetId="5" r:id="rId10"/>
-    <sheet name="GreedyP-Aug 4, 4P" sheetId="3" r:id="rId11"/>
-    <sheet name="GreedyP-Aug 3" sheetId="1" r:id="rId12"/>
+    <sheet name="MurderHornets7" sheetId="20" r:id="rId3"/>
+    <sheet name="MurderHornets6" sheetId="19" r:id="rId4"/>
+    <sheet name="MurderHornets5" sheetId="18" r:id="rId5"/>
+    <sheet name="MurderHornets4" sheetId="16" r:id="rId6"/>
+    <sheet name="MurderHornets3" sheetId="15" r:id="rId7"/>
+    <sheet name="MurderHornets2" sheetId="14" r:id="rId8"/>
+    <sheet name="MurderHornets1" sheetId="13" r:id="rId9"/>
+    <sheet name="GreedyP-Aug11-4p" sheetId="7" r:id="rId10"/>
+    <sheet name="GreedyP-Aug6" sheetId="6" r:id="rId11"/>
+    <sheet name="GreedyP-Aug 5" sheetId="5" r:id="rId12"/>
+    <sheet name="GreedyP-Aug 4, 4P" sheetId="3" r:id="rId13"/>
+    <sheet name="GreedyP-Aug 3" sheetId="1" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="206">
   <si>
     <t>Date</t>
   </si>
@@ -599,6 +601,51 @@
   </si>
   <si>
     <t xml:space="preserve">Started with $28k. Bought some tools - should've spent more money on reveals actually. </t>
+  </si>
+  <si>
+    <t>Started with $28k</t>
+  </si>
+  <si>
+    <t>Super quiet to start with</t>
+  </si>
+  <si>
+    <t>Hit us hard - two locks in bad places. Maybe could have avoided but this was probably still the right call.</t>
+  </si>
+  <si>
+    <t>Hit the detonate button</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Well crap - that happened at the worst possible moment.</t>
+  </si>
+  <si>
+    <t>Got the keycard. We're spread thin. Tinkerer needs to move fast with not a lot of ideas. But we might have the tools to make this work. 1 noise came from Consultant fixer.</t>
+  </si>
+  <si>
+    <t>Transfer failed because of a dang dog. Ugh this is rough.</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>At the end of the noise track now. Kinda wish I wasn't. Basically one more turn left. Two spaces away from the safe. So it's impossible at this point because we need to do a lot of unlocks</t>
+  </si>
+  <si>
+    <t>MurderHornets6. Resigned when I knew I couldn't unlock the safe. We bankrupted ourselves and it was really close. Honestly I want to just extend it.</t>
+  </si>
+  <si>
+    <t>MurderHornets6</t>
+  </si>
+  <si>
+    <t>The Final Score Pt 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decided not to go after the Y door and just run fast to the X lock. </t>
+  </si>
+  <si>
+    <t>A gate went down, but was able to sprint right past it</t>
   </si>
 </sst>
 </file>
@@ -691,7 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -772,6 +819,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -784,12 +837,9 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1129,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1165,7 +1215,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="9" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
@@ -1174,37 +1224,37 @@
       <c r="C1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="34" t="s">
         <v>128</v>
       </c>
       <c r="O1" s="28" t="s">
@@ -1245,20 +1295,20 @@
       </c>
     </row>
     <row r="2" spans="1:32" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="35"/>
+      <c r="A2" s="31"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
@@ -1315,7 +1365,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="10">
-        <f t="shared" ref="G3:G13" si="0">IF(F3&gt;0, (E3-F3)/(D3-1)/B3,(E3/D3)/B3)</f>
+        <f t="shared" ref="G3:G14" si="0">IF(F3&gt;0, (E3-F3)/(D3-1)/B3,(E3/D3)/B3)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="I3" s="10">
@@ -1980,15 +2030,91 @@
         <v>190</v>
       </c>
     </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>44270</v>
+      </c>
+      <c r="B14" s="6">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6">
+        <v>39</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="0"/>
+        <v>1.3928571428571428</v>
+      </c>
+      <c r="I14" s="10">
+        <v>4</v>
+      </c>
+      <c r="J14" s="10">
+        <v>22</v>
+      </c>
+      <c r="K14" s="10">
+        <v>27</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <v>1</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF14" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>44284</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="10">
+        <v>22</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="N1:N2"/>
     <mergeCell ref="AF1:AF2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="E1:E2"/>
@@ -2005,6 +2131,13 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2012,6 +2145,500 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11"/>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.40763888888888888</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>24</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -2225,7 +2852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2410,7 +3037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2783,11 +3410,188 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C4F1C5-5C3D-49F7-A3ED-CEEB7D48D328}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD8C9A7-61A3-42E4-B277-3949C8D04513}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" style="4"/>
+    <col min="8" max="8" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27" style="38" customWidth="1"/>
+    <col min="11" max="11" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23">
+        <v>44284</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="15">
+        <f>C2-L2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3-C2</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15">
+        <f t="shared" ref="D4:D10" si="0">C4-C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75C877A-A868-455C-BDBD-A43DB7CAD674}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E3" sqref="E3:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2838,7 +3642,7 @@
     </row>
     <row r="2" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23">
-        <v>44216</v>
+        <v>44270</v>
       </c>
       <c r="B2" s="13">
         <v>0</v>
@@ -2863,15 +3667,21 @@
         <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="13">
         <v>2</v>
       </c>
       <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="26"/>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -2888,8 +3698,14 @@
       <c r="F4" s="4">
         <v>5</v>
       </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
       <c r="J4" s="27" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -2902,10 +3718,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -2918,13 +3743,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" s="4">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -2937,16 +3768,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="4">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>142</v>
+        <v>16</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -2959,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4">
-        <v>17</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -2978,13 +3809,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -2996,31 +3827,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4">
-        <v>23</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>9</v>
-      </c>
-      <c r="E11" s="4">
-        <v>4</v>
-      </c>
-      <c r="F11" s="4">
-        <v>24</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3029,7 +3839,254 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C4F1C5-5C3D-49F7-A3ED-CEEB7D48D328}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
+    <col min="3" max="3" width="10.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" style="4"/>
+    <col min="8" max="8" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27" style="27" customWidth="1"/>
+    <col min="11" max="11" width="9.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23">
+        <v>44216</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="15">
+        <f>C2-L2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <f>C3-C2</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13">
+        <v>2</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15">
+        <f t="shared" ref="D4:D10" si="0">C4-C3</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>9</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>20</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>23</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>24</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EF70A6-FCA1-4E2C-9C50-C10E56838813}">
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -3292,7 +4349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36AF2DE-5DE3-4E29-B50E-550E73822A31}">
   <dimension ref="A1:L12"/>
   <sheetViews>
@@ -3561,7 +4618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0502A4-DCF3-47D0-8B9F-87F211B2F5A2}">
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -3825,7 +4882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017D68CB-F55D-4072-9720-2EEE29F7BFA2}">
   <dimension ref="A1:L11"/>
   <sheetViews>
@@ -4114,498 +5171,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="8.7265625" style="4"/>
-    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7265625" style="4"/>
-    <col min="7" max="7" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6328125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0.37361111111111112</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16">
-        <v>0.37986111111111115</v>
-      </c>
-      <c r="D3" s="4">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0.3840277777777778</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.38611111111111113</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0.39166666666666666</v>
-      </c>
-      <c r="D6" s="4">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0.40069444444444446</v>
-      </c>
-      <c r="D7" s="4">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B8" s="4">
-        <v>6</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0.40347222222222223</v>
-      </c>
-      <c r="D8" s="4">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B9" s="4">
-        <v>7</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0.40763888888888888</v>
-      </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4">
-        <v>20</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B10" s="4">
-        <v>8</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="D10" s="4">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="8.7265625" style="4"/>
-    <col min="3" max="3" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7265625" style="4"/>
-    <col min="7" max="7" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6328125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>13</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4">
-        <v>18</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4">
-        <v>22</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>44049</v>
-      </c>
-      <c r="B10" s="4">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4">
-        <v>24</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>